--- a/dist/updated_kids_list.xlsx
+++ b/dist/updated_kids_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,21 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -586,6 +601,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +631,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -621,6 +656,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -636,6 +676,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -681,6 +726,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -701,6 +751,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -721,6 +781,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -736,6 +806,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -761,6 +836,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -776,6 +856,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -791,6 +876,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -821,6 +911,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -836,6 +936,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -856,6 +961,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -871,6 +986,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -891,6 +1011,16 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -906,6 +1036,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -921,6 +1056,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -946,6 +1086,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -971,6 +1116,11 @@
           <t>Paid</t>
         </is>
       </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -979,6 +1129,856 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>Youssef Mouline</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Layla Toumi</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Adam Toumi</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Noura Toumi</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Youssef Barakat</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Amira Barakat</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ali Fassi</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hana Fassi</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sami Bouchareb</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Leila Bouchareb</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Karim Bouchareb</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yassin Moktari</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sara Moktari</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rayan Benali</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Maya Benali</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Adam Zerouali</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lina Zerouali</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Samir Zerouali</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Youssef El Amrani</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ines El Amrani</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Omar Tahir</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Salma Tahir</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nabil Benjelloun</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dalia Benjelloun</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Reda Kabbaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yasmine Kabbaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hamid Alaoui</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Amina Alaoui</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Bilal Mansouri</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Zara Mansouri</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nour Rami</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Adam Rami</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Karim Belhadj</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Leila Belhadj</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sami Chakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hana Chakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Youssef Chakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rayan Bouzid</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sara Bouzid</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Malik El Fassi</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nada El Fassi</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Adam Ouazzani</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lina Ouazzani</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yassin Meziane</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Amira Meziane</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Omar Serghini</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Salma Serghini</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Reda Berrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ines Berrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Samir Ziani</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Maya Ziani</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bilal El Khattabi</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yara El Khattabi</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Nour Hadadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Adam Hadadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Karim Benkirane</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Leila Benkirane</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Hamza Lamrani</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Zineb Lamrani</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rayan Lamrani</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Youssef Ezzahraoui</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Aya Ezzahraoui</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sami Benmoussa</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Dounia Benmoussa</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Reda Tijani</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Noura Tijani</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Adam Rifi</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lina Rifi</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Omar Bennis</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Salma Bennis</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yassin El Gharbi</t>
         </is>
       </c>
     </row>
